--- a/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_18Channel/4U3U3I.xlsx
+++ b/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_18Channel/4U3U3I.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01255D07-E41E-4366-BC6A-ABE5BBD2EC74}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2038AD-BC26-4617-97F3-174143459C25}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -847,7 +847,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,7 +1194,7 @@
   <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1996,7 +1996,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
